--- a/data/trans_dic/DCD_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,62; 28,59</t>
+          <t>13,65; 28,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,42; 39,06</t>
+          <t>25,77; 39,05</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,59; 32,06</t>
+          <t>22,17; 31,67</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,58; 19,59</t>
+          <t>13,62; 19,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,77; 29,6</t>
+          <t>22,51; 29,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,46; 24,15</t>
+          <t>19,58; 24,23</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,69; 15,57</t>
+          <t>10,74; 15,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,97; 29,95</t>
+          <t>25,05; 29,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,44; 22,11</t>
+          <t>18,36; 22,1</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,41; 15,59</t>
+          <t>10,17; 14,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,77; 29,58</t>
+          <t>16,88; 29,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,75; 21,7</t>
+          <t>15,65; 21,97</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,28; 17,67</t>
+          <t>13,26; 18,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,86; 31,16</t>
+          <t>26,05; 31,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,56; 24,19</t>
+          <t>20,49; 24,17</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,24; 15,88</t>
+          <t>13,15; 15,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,74; 28,72</t>
+          <t>24,31; 28,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,82; 22,11</t>
+          <t>19,81; 22,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/DCD_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,65; 28,76</t>
+          <t>13,62; 28,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,77; 39,05</t>
+          <t>25,42; 39,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,17; 31,67</t>
+          <t>22,59; 32,06</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,62; 19,76</t>
+          <t>13,58; 19,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,51; 29,9</t>
+          <t>22,77; 29,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,58; 24,23</t>
+          <t>19,46; 24,15</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,74; 15,85</t>
+          <t>10,69; 15,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,05; 29,87</t>
+          <t>24,97; 29,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,36; 22,1</t>
+          <t>18,44; 22,11</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,17; 14,94</t>
+          <t>10,41; 15,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,88; 29,86</t>
+          <t>16,77; 29,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,65; 21,97</t>
+          <t>14,75; 21,7</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,26; 18,02</t>
+          <t>13,28; 17,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>26,05; 31,12</t>
+          <t>25,86; 31,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,49; 24,17</t>
+          <t>20,56; 24,19</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>13,15; 15,72</t>
+          <t>13,24; 15,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,31; 28,75</t>
+          <t>24,74; 28,72</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,81; 22,15</t>
+          <t>19,82; 22,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Habitat-trans_dic.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>31,84%</t>
+          <t>26,56%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>21,95%</t>
         </is>
       </c>
     </row>
@@ -579,24 +579,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,62; 28,59</t>
+          <t>14,06; 19,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>25,42; 39,06</t>
+          <t>21,39; 29,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,59; 32,06</t>
+          <t>19,3; 24,13</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,45%</t>
+          <t>10,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,52%</t>
+          <t>27,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>18,21%</t>
         </is>
       </c>
     </row>
@@ -629,24 +629,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,58; 19,59</t>
+          <t>5,58; 14,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,77; 29,6</t>
+          <t>25,13; 30,05</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,46; 24,15</t>
+          <t>12,33; 21,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13,18%</t>
+          <t>12,33%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>27,35%</t>
+          <t>21,58%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>20,33%</t>
+          <t>17,6%</t>
         </is>
       </c>
     </row>
@@ -679,24 +679,24 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,69; 15,57</t>
+          <t>10,23; 15,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>24,97; 29,95</t>
+          <t>11,71; 28,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,44; 22,11</t>
+          <t>11,17; 20,75</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>15,3%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>19,42%</t>
+          <t>21,44%</t>
         </is>
       </c>
     </row>
@@ -729,24 +729,24 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,41; 15,59</t>
+          <t>13,16; 17,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,77; 29,58</t>
+          <t>21,43; 29,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,75; 21,7</t>
+          <t>18,78; 23,19</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>15,36%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>19,69%</t>
         </is>
       </c>
     </row>
@@ -779,86 +779,35 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,28; 17,67</t>
+          <t>10,56; 14,95</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>25,86; 31,16</t>
+          <t>21,49; 27,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,56; 24,19</t>
+          <t>16,93; 21,2</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>14,41%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>27,12%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>21,16%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>13,24; 15,88</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>24,74; 28,72</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>19,82; 22,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/DCD_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 19,53</t>
+          <t>13,87; 19,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,39; 29,57</t>
+          <t>20,73; 29,69</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,3; 24,13</t>
+          <t>18,88; 23,91</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,58; 14,2</t>
+          <t>6,02; 14,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,13; 30,05</t>
+          <t>25,25; 29,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,33; 21,16</t>
+          <t>12,17; 21,02</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>10,23; 15,36</t>
+          <t>10,09; 14,99</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,71; 28,76</t>
+          <t>12,37; 29,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,17; 20,75</t>
+          <t>12,12; 20,67</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,16; 17,62</t>
+          <t>13,0; 17,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,43; 29,88</t>
+          <t>21,33; 29,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,78; 23,19</t>
+          <t>19,11; 23,39</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,56; 14,95</t>
+          <t>10,42; 14,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,49; 27,86</t>
+          <t>20,8; 27,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,93; 21,2</t>
+          <t>17,11; 21,21</t>
         </is>
       </c>
     </row>
@@ -811,4 +812,462 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico discapacitante (incluye Otro dolor crónico)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>105998</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>192653</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>298651</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>88140; 124384</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>150369; 215322</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>256930; 325318</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>619</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>127906</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>263884</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>391791</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>71834; 172201</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>242014; 286790</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>261774; 452219</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>86912</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>201374</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>288287</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>71070; 105612</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>115456; 270997</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>198577; 338607</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>469</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>141763</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>291634</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>433397</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>120470; 165177</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>233515; 325511</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>386375; 472920</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1644</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>2219</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>462580</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>949546</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1412125</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>360611; 516813</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>772295; 1028292</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1227473; 1521176</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>